--- a/team_specific_matrix/Toccoa Falls_A.xlsx
+++ b/team_specific_matrix/Toccoa Falls_A.xlsx
@@ -501,7 +501,7 @@
         <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,16 +540,16 @@
         <v>0</v>
       </c>
       <c r="P2">
+        <v>0.15</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>0.1</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06666666666666667</v>
+        <v>0.12</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06666666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.06666666666666667</v>
+        <v>0.12</v>
       </c>
       <c r="R6">
-        <v>0.1333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="S6">
-        <v>0.6666666666666666</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1052631578947368</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1052631578947368</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.05263157894736842</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="R7">
-        <v>0.1052631578947368</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S7">
-        <v>0.631578947368421</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05172413793103448</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06896551724137931</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08620689655172414</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01724137931034483</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.06896551724137931</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="R8">
-        <v>0.08620689655172414</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="S8">
-        <v>0.6206896551724138</v>
+        <v>0.5975609756097561</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04166666666666666</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08333333333333333</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08333333333333333</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.08333333333333333</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R9">
-        <v>0.2083333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S9">
-        <v>0.3333333333333333</v>
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01492537313432836</v>
+        <v>0.04424778761061947</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05970149253731343</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07462686567164178</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01492537313432836</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1492537313432836</v>
+        <v>0.1769911504424779</v>
       </c>
       <c r="R10">
-        <v>0.07462686567164178</v>
+        <v>0.06194690265486726</v>
       </c>
       <c r="S10">
-        <v>0.6119402985074627</v>
+        <v>0.5221238938053098</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1304347826086956</v>
+        <v>0.125</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04347826086956522</v>
+        <v>0.03125</v>
       </c>
       <c r="K11">
-        <v>0.1304347826086956</v>
+        <v>0.15625</v>
       </c>
       <c r="L11">
-        <v>0.6521739130434783</v>
+        <v>0.625</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04347826086956522</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.9333333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06666666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="I15">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J15">
-        <v>0.25</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.5833333333333334</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="I16">
-        <v>0.2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K16">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.3</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="I17">
-        <v>0.1</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="J17">
-        <v>0.4</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.2</v>
+        <v>0.1621621621621622</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.3888888888888889</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="I18">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J18">
-        <v>0.1111111111111111</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K18">
-        <v>0.1111111111111111</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.2222222222222222</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.006756756756756757</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2905405405405405</v>
+        <v>0.2796208530805687</v>
       </c>
       <c r="I19">
-        <v>0.1148648648648649</v>
+        <v>0.0995260663507109</v>
       </c>
       <c r="J19">
-        <v>0.2702702702702703</v>
+        <v>0.2843601895734597</v>
       </c>
       <c r="K19">
-        <v>0.1148648648648649</v>
+        <v>0.1090047393364929</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02702702702702703</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.02702702702702703</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1486486486486487</v>
+        <v>0.1516587677725119</v>
       </c>
     </row>
   </sheetData>
